--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V171"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>1.32</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.47</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:28</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.65</v>
+        <v>6.09</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.28</v>
+        <v>5.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23/04/2023 16:52</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.45</v>
+        <v>8.9</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.16</v>
+        <v>8.07</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
         </is>
       </c>
     </row>
@@ -2413,30 +2413,30 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>16/04/2023 19:42</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,40 +2444,40 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>3.51</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>16/04/2023 19:42</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.18</v>
+        <v>3.46</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>23/04/2023 16:56</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.41</v>
+        <v>3.55</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>16/04/2023 19:42</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23/04/2023 16:56</t>
+          <t>23/04/2023 16:25</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-odds-bk/QqZ8eWD2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-haugesund/4zYCfjT8/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.99</v>
+        <v>2.47</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:56</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.51</v>
+        <v>3.65</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.46</v>
+        <v>3.28</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.2</v>
+        <v>3.16</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:25</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-haugesund/4zYCfjT8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>16/04/2023 19:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:28</t>
+          <t>23/04/2023 16:56</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>6.09</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>16/04/2023 19:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>5.18</v>
+        <v>4.18</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:56</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>8.9</v>
+        <v>4.41</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>16/04/2023 19:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>8.07</v>
+        <v>4.22</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:56</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-odds-bk/QqZ8eWD2/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.22</v>
+        <v>1.69</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.47</v>
+        <v>1.68</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:54</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.6</v>
+        <v>4.07</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.04</v>
+        <v>4.08</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:59</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.28</v>
+        <v>4.87</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.41</v>
+        <v>5.3</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:59</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-aalesund/2VFaonje/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.68</v>
+        <v>2.15</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.07</v>
+        <v>3.61</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.87</v>
+        <v>3.02</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.3</v>
+        <v>3.64</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.39</v>
+        <v>2.22</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.04</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.95</v>
+        <v>3.28</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.72</v>
+        <v>3.41</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-aalesund/2VFaonje/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.32</v>
+        <v>1.32</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.15</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:17</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.61</v>
+        <v>5.78</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.47</v>
+        <v>5.08</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.02</v>
+        <v>8.73</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.64</v>
+        <v>7.28</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.32</v>
+        <v>2.39</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.43</v>
+        <v>2.67</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:17</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.78</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.08</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>8.73</v>
+        <v>2.95</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.28</v>
+        <v>2.72</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
         </is>
       </c>
     </row>
@@ -3517,26 +3517,26 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>6.49</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.92</v>
+        <v>6.53</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>11.74</v>
+        <v>13.69</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>13.9</v>
+        <v>11.2</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
         </is>
       </c>
     </row>
@@ -3701,26 +3701,26 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -3732,15 +3732,15 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>8.050000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>6.53</v>
+        <v>5.92</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,15 +3748,15 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>13.69</v>
+        <v>11.74</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>11.2</v>
+        <v>13.9</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.54</v>
+        <v>1.43</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>4.21</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.51</v>
+        <v>5.05</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.69</v>
+        <v>4.57</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.87</v>
+        <v>7.33</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:41</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stromsgodset/vVqsbPZ0/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.81</v>
+        <v>2.63</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>07/05/2023 16:55</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.96</v>
+        <v>3.5</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>07/05/2023 16:58</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.23</v>
+        <v>2.69</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.03</v>
+        <v>2.87</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>07/05/2023 16:58</t>
+          <t>07/05/2023 16:41</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-odds-bk/QRuwa5Kf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>2.58</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:57</t>
+          <t>07/05/2023 16:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.21</v>
+        <v>3.96</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5.05</v>
+        <v>3.22</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.33</v>
+        <v>3.03</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stromsgodset/vVqsbPZ0/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-odds-bk/QRuwa5Kf/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>08/05/2023 13:12</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>13/05/2023 16:50</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>07/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>13/05/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>07/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
           <t>13/05/2023 16:57</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>08/05/2023 13:12</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>08/05/2023 13:12</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-aalesund/ne9KBr40/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>3.71</v>
+        <v>1.47</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.88</v>
+        <v>1.34</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:17</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.88</v>
+        <v>4.79</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.99</v>
+        <v>5.64</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.98</v>
+        <v>6.53</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.92</v>
+        <v>10.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.28</v>
+        <v>1.89</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 13:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.27</v>
+        <v>1.75</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13/05/2023 16:37</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>6.04</v>
+        <v>3.62</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 13:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>6.13</v>
+        <v>3.69</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>10.34</v>
+        <v>4.24</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 13:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>11.56</v>
+        <v>5.33</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stromsgodset/d6G7EpKs/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-aalesund/ne9KBr40/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.32</v>
+        <v>1.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.01</v>
+        <v>1.27</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:37</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.28</v>
+        <v>6.04</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.36</v>
+        <v>6.13</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.3</v>
+        <v>10.34</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.25</v>
+        <v>11.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>13/05/2023 16:57</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stromsgodset/d6G7EpKs/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.47</v>
+        <v>3.71</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.34</v>
+        <v>3.88</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:17</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.79</v>
+        <v>3.88</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>5.64</v>
+        <v>3.99</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:57</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>6.53</v>
+        <v>1.98</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>10.47</v>
+        <v>1.92</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:57</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
         </is>
       </c>
     </row>
@@ -5633,30 +5633,30 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>4.33</v>
+        <v>1.67</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5.67</v>
+        <v>1.72</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5664,15 +5664,15 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.06</v>
+        <v>4.27</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>1.77</v>
+        <v>4.76</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.65</v>
+        <v>4.88</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/05/2023 17:53</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.27</v>
+        <v>4.13</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.07</v>
+        <v>4.31</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.76</v>
+        <v>4.61</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.88</v>
+        <v>5.3</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.13</v>
+        <v>4.33</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.31</v>
+        <v>3.45</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.61</v>
+        <v>6.12</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.3</v>
+        <v>5.65</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/05/2023 17:57</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>1.54</v>
+        <v>4.33</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>5.67</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.33</v>
+        <v>4.06</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.45</v>
+        <v>4.04</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,24 +5956,24 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>6.12</v>
+        <v>1.77</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.65</v>
+        <v>1.65</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:53</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.47</v>
+        <v>2.77</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:53</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>5.59</v>
+        <v>3.36</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>5.32</v>
+        <v>3.3</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:56</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>7.05</v>
+        <v>2.81</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>6.19</v>
+        <v>2.76</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:54</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-valerenga/QJ7MRffb/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Tromso</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.24</v>
+        <v>1.59</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.36</v>
+        <v>4.22</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.17</v>
+        <v>4.38</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.39</v>
+        <v>5.63</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.15</v>
+        <v>5.81</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.54</v>
+        <v>2.05</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.73</v>
+        <v>3.84</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.49</v>
+        <v>3.64</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.85</v>
+        <v>4.05</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>6.32</v>
+        <v>3.74</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-rosenborg/Q7qaNu3C/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.87</v>
+        <v>1.21</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,48 +6300,48 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
+          <t>29/05/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>22/05/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
           <t>29/05/2023 16:59</t>
         </is>
       </c>
-      <c r="N64" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="R64" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="S64" t="inlineStr">
         <is>
           <t>22/05/2023 14:42</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q64" t="inlineStr">
+      <c r="T64" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="U64" t="inlineStr">
         <is>
           <t>29/05/2023 16:59</t>
         </is>
       </c>
-      <c r="R64" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>22/05/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>29/05/2023 16:59</t>
-        </is>
-      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.59</v>
+        <v>2.24</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.22</v>
+        <v>3.36</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.38</v>
+        <v>3.17</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>5.63</v>
+        <v>3.39</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.81</v>
+        <v>3.15</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.6</v>
+        <v>1.38</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.77</v>
+        <v>1.47</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>29/05/2023 16:53</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.36</v>
+        <v>5.59</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.3</v>
+        <v>5.32</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>29/05/2023 16:56</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.81</v>
+        <v>7.05</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.76</v>
+        <v>6.19</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>29/05/2023 16:54</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-valerenga/QJ7MRffb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/05/2023 16:54</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>7.45</v>
+        <v>4.73</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>7.95</v>
+        <v>4.49</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>11.51</v>
+        <v>6.85</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>13.49</v>
+        <v>6.32</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-rosenborg/Q7qaNu3C/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Bodo/Glimt</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>3</v>
-      </c>
       <c r="J69" t="n">
-        <v>3.71</v>
+        <v>2.49</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.31</v>
+        <v>2.93</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>04/06/2023 16:59</t>
+          <t>04/06/2023 16:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.93</v>
+        <v>3.57</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.99</v>
+        <v>3.47</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>04/06/2023 16:59</t>
+          <t>04/06/2023 16:51</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.97</v>
+        <v>2.8</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.1</v>
+        <v>2.51</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>04/06/2023 16:59</t>
+          <t>04/06/2023 16:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-bodo-glimt/KtTetf9i/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-sarpsborg-08/hzuEHAWj/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
       <c r="J70" t="n">
-        <v>1.88</v>
+        <v>2.83</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.72</v>
+        <v>2.81</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>04/06/2023 16:57</t>
+          <t>04/06/2023 16:47</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.86</v>
+        <v>3.58</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.96</v>
+        <v>3.35</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>04/06/2023 16:57</t>
+          <t>04/06/2023 16:32</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.98</v>
+        <v>2.46</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>5.05</v>
+        <v>2.67</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>04/06/2023 16:57</t>
+          <t>04/06/2023 16:56</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-haugesund/EqtAIjHp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-odds-bk/823sNW8T/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.83</v>
+        <v>1.59</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>29/05/2023 17:12</t>
+          <t>29/05/2023 19:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.81</v>
+        <v>1.67</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>04/06/2023 16:47</t>
+          <t>04/06/2023 16:59</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.58</v>
+        <v>4.29</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>29/05/2023 17:12</t>
+          <t>29/05/2023 19:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.35</v>
+        <v>3.99</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>04/06/2023 16:32</t>
+          <t>04/06/2023 16:59</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.46</v>
+        <v>5.53</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>29/05/2023 17:12</t>
+          <t>29/05/2023 19:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.67</v>
+        <v>5.53</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>04/06/2023 16:56</t>
+          <t>04/06/2023 16:58</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-odds-bk/823sNW8T/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-ham-kam/faawOCgN/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>29/05/2023 19:42</t>
+          <t>30/05/2023 06:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/06/2023 16:59</t>
+          <t>04/06/2023 16:28</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>4.29</v>
+        <v>4.21</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>29/05/2023 19:42</t>
+          <t>30/05/2023 06:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.99</v>
+        <v>4.39</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04/06/2023 16:59</t>
+          <t>04/06/2023 16:28</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.53</v>
+        <v>5.35</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>29/05/2023 19:42</t>
+          <t>30/05/2023 06:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.53</v>
+        <v>5.84</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>04/06/2023 16:58</t>
+          <t>04/06/2023 16:28</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-ham-kam/faawOCgN/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-stabaek/0x0ZOhvH/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>3</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Stabaek</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>1.64</v>
+        <v>4.68</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.58</v>
+        <v>5.32</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/06/2023 16:28</t>
+          <t>04/06/2023 16:56</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.21</v>
+        <v>4.01</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4.39</v>
+        <v>4.1</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/06/2023 16:28</t>
+          <t>04/06/2023 16:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>5.35</v>
+        <v>1.75</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.84</v>
+        <v>1.67</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/06/2023 16:28</t>
+          <t>04/06/2023 16:55</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-stabaek/0x0ZOhvH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-brann/Mo1VPYOA/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>4.68</v>
+        <v>1.88</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>30/05/2023 06:42</t>
+          <t>29/05/2023 17:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>5.32</v>
+        <v>1.72</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/06/2023 16:56</t>
+          <t>04/06/2023 16:57</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.01</v>
+        <v>3.86</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>30/05/2023 06:42</t>
+          <t>29/05/2023 17:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.1</v>
+        <v>3.96</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/06/2023 16:56</t>
+          <t>04/06/2023 16:57</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>30/05/2023 06:42</t>
+          <t>29/05/2023 17:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.67</v>
+        <v>5.05</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/06/2023 16:55</t>
+          <t>04/06/2023 16:57</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-brann/Mo1VPYOA/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-haugesund/EqtAIjHp/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.49</v>
+        <v>3.71</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.93</v>
+        <v>3.31</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/06/2023 16:51</t>
+          <t>04/06/2023 16:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.57</v>
+        <v>3.93</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.47</v>
+        <v>3.99</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/06/2023 16:51</t>
+          <t>04/06/2023 16:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.8</v>
+        <v>1.97</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.51</v>
+        <v>2.1</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/06/2023 16:51</t>
+          <t>04/06/2023 16:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-sarpsborg-08/hzuEHAWj/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-bodo-glimt/KtTetf9i/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.15</v>
+        <v>1.64</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 16:53</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.04</v>
+        <v>4.52</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.39</v>
+        <v>4.38</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 16:53</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.52</v>
+        <v>5.09</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.73</v>
+        <v>5.2</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 16:53</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sandefjord/lMKCxC8G/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-stromsgodset/tKaiVT0j/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,22 +7573,22 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>04/06/2023 17:12</t>
+          <t>05/06/2023 07:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,40 +7596,40 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>04/06/2023 17:12</t>
+          <t>05/06/2023 07:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
+          <t>11/06/2023 16:26</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>05/06/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
           <t>11/06/2023 16:59</t>
         </is>
       </c>
-      <c r="R78" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>04/06/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>11/06/2023 16:59</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-tromso/tdH4vYw4/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-rosenborg/nc0mW9op/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>1.6</v>
+        <v>2.04</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>04/06/2023 17:12</t>
+          <t>04/06/2023 19:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/06/2023 16:53</t>
+          <t>11/06/2023 16:48</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.52</v>
+        <v>3.92</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>04/06/2023 17:12</t>
+          <t>04/06/2023 19:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.38</v>
+        <v>4.1</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/06/2023 16:53</t>
+          <t>11/06/2023 16:55</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.09</v>
+        <v>3.4</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>04/06/2023 17:12</t>
+          <t>04/06/2023 19:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.2</v>
+        <v>3.11</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/06/2023 16:53</t>
+          <t>11/06/2023 16:52</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-stromsgodset/tKaiVT0j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-viking/plELzjwT/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.04</v>
+        <v>1.21</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>04/06/2023 19:42</t>
+          <t>04/06/2023 17:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.16</v>
+        <v>1.16</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/06/2023 16:48</t>
+          <t>11/06/2023 16:42</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.92</v>
+        <v>7.44</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>04/06/2023 19:42</t>
+          <t>04/06/2023 17:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.1</v>
+        <v>9.01</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/06/2023 16:55</t>
+          <t>11/06/2023 16:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.4</v>
+        <v>12.74</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>04/06/2023 19:42</t>
+          <t>04/06/2023 17:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.11</v>
+        <v>16.88</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/06/2023 16:52</t>
+          <t>11/06/2023 16:58</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-viking/plELzjwT/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-ham-kam/faL8whgA/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>3</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Ham-Kam</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
       <c r="J81" t="n">
-        <v>1.21</v>
+        <v>2.34</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.16</v>
+        <v>2.57</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/06/2023 16:42</t>
+          <t>11/06/2023 16:59</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>7.44</v>
+        <v>3.31</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>9.01</v>
+        <v>3.18</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/06/2023 16:58</t>
+          <t>11/06/2023 16:59</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>12.74</v>
+        <v>3.24</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>16.88</v>
+        <v>3.1</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/06/2023 16:58</t>
+          <t>11/06/2023 16:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-ham-kam/faL8whgA/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-tromso/tdH4vYw4/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>3.96</v>
+        <v>1.75</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>04/06/2023 19:42</t>
+          <t>04/06/2023 17:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/06/2023 16:58</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.88</v>
+        <v>4.04</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>04/06/2023 19:42</t>
+          <t>04/06/2023 17:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.34</v>
+        <v>3.39</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/06/2023 16:58</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.88</v>
+        <v>4.52</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>04/06/2023 19:42</t>
+          <t>04/06/2023 17:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.6</v>
+        <v>3.73</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/06/2023 16:58</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-molde/SCJGyWNM/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sandefjord/lMKCxC8G/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.6</v>
+        <v>3.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>05/06/2023 07:12</t>
+          <t>04/06/2023 19:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.92</v>
+        <v>5.75</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/06/2023 16:59</t>
+          <t>11/06/2023 16:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.28</v>
+        <v>3.88</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>05/06/2023 07:12</t>
+          <t>04/06/2023 19:42</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.29</v>
+        <v>4.34</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/06/2023 16:26</t>
+          <t>11/06/2023 16:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.86</v>
+        <v>1.88</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>05/06/2023 07:12</t>
+          <t>04/06/2023 19:42</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/06/2023 16:59</t>
+          <t>11/06/2023 16:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-rosenborg/nc0mW9op/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-molde/SCJGyWNM/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.43</v>
+        <v>2.52</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>25/06/2023 16:58</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,32 +8340,32 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.12</v>
+        <v>3.42</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>25/06/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>16/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
           <t>25/06/2023 16:59</t>
         </is>
       </c>
-      <c r="R86" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>16/06/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T86" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>25/06/2023 16:58</t>
-        </is>
-      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stabaek/djCOTysq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-odds-bk/zJSux0Z2/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Sarpsborg 08</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.11</v>
+        <v>1.18</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.86</v>
+        <v>7.74</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.78</v>
+        <v>7.33</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.25</v>
+        <v>13.59</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.23</v>
+        <v>12.45</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sarpsborg-08/Q7LhZcJL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-haugesund/rqWmzv4F/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
       <c r="J88" t="n">
-        <v>1.18</v>
+        <v>2.02</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.22</v>
+        <v>2.43</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>7.74</v>
+        <v>3.5</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>7.33</v>
+        <v>3.12</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="R88" t="n">
-        <v>13.59</v>
+        <v>3.85</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>12.45</v>
+        <v>3.37</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:58</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-haugesund/rqWmzv4F/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stabaek/djCOTysq/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>2.44</v>
+        <v>2.11</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.39</v>
+        <v>3.86</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.42</v>
+        <v>3.78</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>25/06/2023 16:53</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.96</v>
+        <v>3.23</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-odds-bk/zJSux0Z2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sarpsborg-08/Q7LhZcJL/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Rosenborg</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
       <c r="J92" t="n">
-        <v>3.17</v>
+        <v>1.58</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.27</v>
+        <v>1.65</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.34</v>
+        <v>4.32</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.57</v>
+        <v>4.04</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.39</v>
+        <v>5.9</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.27</v>
+        <v>5.61</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-rosenborg/tftTQZQ1/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-tromso/jPNJmcYE/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.58</v>
+        <v>2.39</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.32</v>
+        <v>3.44</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.04</v>
+        <v>3.22</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.9</v>
+        <v>3.04</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.61</v>
+        <v>3.36</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-tromso/jPNJmcYE/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-odds-bk/80YElwJ8/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.39</v>
+        <v>1.25</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.38</v>
+        <v>1.34</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:45</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.44</v>
+        <v>6.6</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.22</v>
+        <v>6.05</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:51</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.04</v>
+        <v>11.51</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.36</v>
+        <v>8.33</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:54</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-odds-bk/80YElwJ8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-ham-kam/fcUAkJ32/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.48</v>
+        <v>3.17</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.36</v>
+        <v>3.27</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.92</v>
+        <v>3.34</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>5.85</v>
+        <v>3.57</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>6.3</v>
+        <v>2.39</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>8.07</v>
+        <v>2.27</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-sandefjord/UFMNnHmL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-rosenborg/tftTQZQ1/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>02/07/2023 16:45</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>6.6</v>
+        <v>4.92</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>6.05</v>
+        <v>5.85</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>02/07/2023 16:51</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>11.51</v>
+        <v>6.3</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>8.33</v>
+        <v>8.07</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>02/07/2023 16:54</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-ham-kam/fcUAkJ32/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-sandefjord/UFMNnHmL/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,63 +9689,63 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>4.85</v>
+        <v>2.68</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>6.03</v>
+        <v>2.75</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>4.42</v>
+        <v>3.35</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>4.58</v>
+        <v>3.33</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>1.66</v>
+        <v>2.77</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1.55</v>
+        <v>2.76</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-bodo-glimt/lK56vge1/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stabaek/4Smg2dm8/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.91</v>
+        <v>2.36</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>09/07/2023 16:57</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.32</v>
+        <v>3.54</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.71</v>
+        <v>3.78</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.25</v>
+        <v>2.94</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-valerenga/zFAQqlXt/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-lillestrom/SA4AwDA7/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,63 +9873,63 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.68</v>
+        <v>4.85</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.75</v>
+        <v>6.03</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.35</v>
+        <v>4.42</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.33</v>
+        <v>4.58</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.77</v>
+        <v>1.66</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.76</v>
+        <v>1.55</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stabaek/4Smg2dm8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-bodo-glimt/lK56vge1/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:57</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.54</v>
+        <v>3.32</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.78</v>
+        <v>3.71</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.94</v>
+        <v>4.25</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-lillestrom/SA4AwDA7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-valerenga/zFAQqlXt/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.99</v>
+        <v>2.36</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.94</v>
+        <v>2.33</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>16/07/2023 16:58</t>
+          <t>16/07/2023 16:51</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.58</v>
+        <v>3.38</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:51</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.41</v>
+        <v>3.11</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>16/07/2023 16:55</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-odds-bk/AX2wsnHa/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:32</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>4.71</v>
+        <v>7.53</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>5.64</v>
+        <v>7.99</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:48</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>5.56</v>
+        <v>12.15</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>7.92</v>
+        <v>12.64</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:55</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-ham-kam/hGffw4GO/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-haugesund/Ic2st6W5/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:32</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>5.27</v>
+        <v>4.71</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:48</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>8.119999999999999</v>
+        <v>5.56</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>8.32</v>
+        <v>7.92</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:55</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sandefjord/dl1ouQoC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-ham-kam/hGffw4GO/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.22</v>
+        <v>2.99</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,48 +10716,48 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.2</v>
+        <v>2.94</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
+          <t>16/07/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>09/07/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
           <t>16/07/2023 16:41</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="O112" t="inlineStr">
+      <c r="R112" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S112" t="inlineStr">
         <is>
           <t>09/07/2023 17:12</t>
         </is>
       </c>
-      <c r="P112" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>16/07/2023 16:56</t>
-        </is>
-      </c>
-      <c r="R112" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>09/07/2023 17:12</t>
-        </is>
-      </c>
       <c r="T112" t="n">
-        <v>12.64</v>
+        <v>2.46</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:55</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-haugesund/Ic2st6W5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>2.36</v>
+        <v>1.38</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.33</v>
+        <v>1.36</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>16/07/2023 16:51</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.4</v>
+        <v>5.27</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.38</v>
+        <v>5.71</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>16/07/2023 16:51</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.11</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.3</v>
+        <v>8.32</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-odds-bk/AX2wsnHa/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sandefjord/dl1ouQoC/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.22</v>
+        <v>3.6</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>16/07/2023 17:12</t>
+          <t>16/07/2023 19:41</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.41</v>
+        <v>3.16</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>23/07/2023 16:35</t>
+          <t>23/07/2023 16:52</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.42</v>
+        <v>3.64</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>16/07/2023 17:12</t>
+          <t>16/07/2023 19:41</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>23/07/2023 16:38</t>
+          <t>23/07/2023 16:58</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.45</v>
+        <v>2.05</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>16/07/2023 17:12</t>
+          <t>16/07/2023 19:41</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.12</v>
+        <v>2.33</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>23/07/2023 16:38</t>
+          <t>23/07/2023 16:58</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stabaek/4fOCeoWh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-brann/IHUSi3VH/</t>
         </is>
       </c>
     </row>
@@ -11245,46 +11245,46 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J118" t="n">
-        <v>3.45</v>
+        <v>5.92</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>19/07/2023 18:12</t>
+          <t>16/07/2023 17:12</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.53</v>
+        <v>8.65</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>23/07/2023 16:40</t>
+          <t>23/07/2023 16:59</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.63</v>
+        <v>5.01</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>19/07/2023 18:12</t>
+          <t>16/07/2023 17:12</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.77</v>
+        <v>5.61</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -11292,24 +11292,24 @@
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>19/07/2023 18:12</t>
+          <t>16/07/2023 17:12</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>23/07/2023 16:59</t>
+          <t>23/07/2023 16:38</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-lillestrom/bHNGf5oa/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-bodo-glimt/vRVOhqGB/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>5.92</v>
+        <v>2.62</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>8.65</v>
+        <v>2.48</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>23/07/2023 16:59</t>
+          <t>23/07/2023 16:58</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.01</v>
+        <v>3.36</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.61</v>
+        <v>3.39</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>23/07/2023 16:59</t>
+          <t>23/07/2023 16:57</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.48</v>
+        <v>2.78</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>1.36</v>
+        <v>3.04</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>23/07/2023 16:38</t>
+          <t>23/07/2023 16:58</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-bodo-glimt/vRVOhqGB/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-valerenga/d2tKgP05/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>16/07/2023 19:41</t>
+          <t>19/07/2023 18:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.16</v>
+        <v>3.53</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>23/07/2023 16:52</t>
+          <t>23/07/2023 16:40</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>16/07/2023 19:41</t>
+          <t>19/07/2023 18:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.54</v>
+        <v>3.77</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>23/07/2023 16:58</t>
+          <t>23/07/2023 16:59</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>16/07/2023 19:41</t>
+          <t>19/07/2023 18:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>23/07/2023 16:58</t>
+          <t>23/07/2023 16:59</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-brann/IHUSi3VH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-lillestrom/bHNGf5oa/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G121" t="n">
+        <v>3</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
         <v>2</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Valerenga</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
       <c r="J121" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>23/07/2023 16:58</t>
+          <t>23/07/2023 16:35</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>23/07/2023 16:57</t>
+          <t>23/07/2023 16:38</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.78</v>
+        <v>3.45</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>23/07/2023 16:58</t>
+          <t>23/07/2023 16:38</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-valerenga/d2tKgP05/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stabaek/4fOCeoWh/</t>
         </is>
       </c>
     </row>
@@ -12625,30 +12625,30 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>2.65</v>
+        <v>4.04</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>30/07/2023 19:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.58</v>
+        <v>3.73</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -12656,40 +12656,40 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.39</v>
+        <v>4.1</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>30/07/2023 19:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.31</v>
+        <v>4.05</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>06/08/2023 16:52</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.78</v>
+        <v>1.82</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>30/07/2023 19:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.97</v>
+        <v>1.94</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>06/08/2023 16:55</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-lillestrom/4lsYJLEA/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-brann/nDA730UT/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>3.8</v>
+        <v>2.86</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>4.03</v>
+        <v>2.55</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.16</v>
+        <v>3.45</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,32 +12756,32 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.23</v>
+        <v>3.44</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
+          <t>06/08/2023 16:35</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>30/07/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
           <t>06/08/2023 16:58</t>
         </is>
       </c>
-      <c r="R134" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>30/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T134" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U134" t="inlineStr">
-        <is>
-          <t>06/08/2023 16:58</t>
-        </is>
-      </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-sarpsborg-08/bivQLspb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-rosenborg/lMdZbKxo/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>2.12</v>
+        <v>2.65</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 19:42</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>06/08/2023 16:53</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.46</v>
+        <v>3.39</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 19:42</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>06/08/2023 16:53</t>
+          <t>06/08/2023 16:52</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.59</v>
+        <v>2.78</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 19:42</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>06/08/2023 16:56</t>
+          <t>06/08/2023 16:55</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stabaek/GSlLMNUi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-lillestrom/4lsYJLEA/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>5</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Rosenborg</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>2</v>
-      </c>
       <c r="J136" t="n">
-        <v>2.86</v>
+        <v>3.8</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,39 +12924,39 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.55</v>
+        <v>4.03</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
+          <t>06/08/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>30/07/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
           <t>06/08/2023 16:58</t>
         </is>
       </c>
-      <c r="N136" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O136" t="inlineStr">
+      <c r="R136" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S136" t="inlineStr">
         <is>
           <t>30/07/2023 17:12</t>
         </is>
       </c>
-      <c r="P136" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>06/08/2023 16:35</t>
-        </is>
-      </c>
-      <c r="R136" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>30/07/2023 17:12</t>
-        </is>
-      </c>
       <c r="T136" t="n">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-rosenborg/lMdZbKxo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-sarpsborg-08/bivQLspb/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G137" t="n">
+        <v>4</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>2</v>
-      </c>
       <c r="J137" t="n">
-        <v>4.04</v>
+        <v>2.12</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>3.73</v>
+        <v>2.7</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:53</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>4.1</v>
+        <v>3.46</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.05</v>
+        <v>3.18</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:53</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>1.82</v>
+        <v>3.59</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>1.94</v>
+        <v>2.91</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:56</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-brann/nDA730UT/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stabaek/GSlLMNUi/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,63 +13921,63 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="n">
-        <v>1.56</v>
+        <v>5.3</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.46</v>
+        <v>6.3</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>20/08/2023 16:34</t>
+          <t>20/08/2023 16:50</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>4.41</v>
+        <v>4.79</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4.65</v>
+        <v>4.98</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:50</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>5.94</v>
+        <v>1.55</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>7.11</v>
+        <v>1.49</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 16:47</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-sandefjord/0dEszY48/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-bodo-glimt/CzYnEjrk/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>5.3</v>
+        <v>2.73</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 16:12</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>6.3</v>
+        <v>2.67</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
+          <t>20/08/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
           <t>20/08/2023 16:50</t>
         </is>
       </c>
-      <c r="N148" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P148" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>20/08/2023 16:50</t>
-        </is>
-      </c>
-      <c r="R148" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T148" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="U148" t="inlineStr">
-        <is>
-          <t>20/08/2023 16:47</t>
-        </is>
-      </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-bodo-glimt/CzYnEjrk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-rosenborg/IDYrFWSr/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>2.73</v>
+        <v>1.19</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.67</v>
+        <v>1.28</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.57</v>
+        <v>7.98</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.63</v>
+        <v>6.67</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>20/08/2023 15:57</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.55</v>
+        <v>11.84</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.63</v>
+        <v>9.35</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>20/08/2023 16:50</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-rosenborg/IDYrFWSr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-aalesund/6y6FWbbG/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:34</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>7.98</v>
+        <v>4.41</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>6.67</v>
+        <v>4.65</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>11.84</v>
+        <v>5.94</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>9.35</v>
+        <v>7.11</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-aalesund/6y6FWbbG/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-sandefjord/0dEszY48/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>3.83</v>
+        <v>1.6</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>4.31</v>
+        <v>1.51</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>17/09/2023 16:59</t>
+          <t>17/09/2023 16:51</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>4.1</v>
+        <v>4.26</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4.48</v>
+        <v>4.56</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>1.86</v>
+        <v>5.48</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>1.65</v>
+        <v>6.89</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>17/09/2023 16:54</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-ham-kam/bRCwh6Qg/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>2.05</v>
+        <v>3.78</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.94</v>
+        <v>3.94</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:45</t>
+          <t>17/09/2023 16:59</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:51</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>3.32</v>
+        <v>1.93</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>3.63</v>
+        <v>1.79</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:59</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-brann/44DZhnBm/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>3.78</v>
+        <v>3.83</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>3.94</v>
+        <v>4.31</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.87</v>
+        <v>4.1</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.9</v>
+        <v>4.48</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:51</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:59</t>
+          <t>17/09/2023 16:54</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-brann/44DZhnBm/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.51</v>
+        <v>1.94</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:51</t>
+          <t>17/09/2023 16:45</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>4.26</v>
+        <v>4</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4.56</v>
+        <v>4.2</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>5.48</v>
+        <v>3.32</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>6.89</v>
+        <v>3.63</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-ham-kam/bRCwh6Qg/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
         </is>
       </c>
     </row>
@@ -16186,6 +16186,742 @@
       <c r="V171" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-aalesund/CUGsiQu0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45192.75</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-stabaek/fg6njpe6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45193.70833333334</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>4</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>3</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:40</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sandefjord/Y7JEkYLh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45193.70833333334</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>4</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Valerenga</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45193.70833333334</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:44</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:49</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45193.70833333334</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>3</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>21/09/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>21/09/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>21/09/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45193.70833333334</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:31</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45193.70833333334</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:34</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:34</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45193.80208333334</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:08</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:08</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-tromso/tA4flOPI/</t>
         </is>
       </c>
     </row>
